--- a/Fintech_Backend/Social_Network/data/influencer.xlsx
+++ b/Fintech_Backend/Social_Network/data/influencer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d58a44348ad9b894/_Spring2022/CS 4485.002 - Computer Science Project/Project/Social_Network/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d58a44348ad9b894/_Spring2022/CS 4485.002 - Computer Science Project/Project/repo/CS4485_T2_DataIngestion/Fintech_Backend/Social_Network/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DF96042-C6F4-D543-8831-AFEC7271C9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{8BE70E1B-032A-48D4-AFAE-375DCFAD2960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4D4F840-FDD9-4B0F-B36D-0111D34FB9FF}"/>
   <bookViews>
-    <workbookView xWindow="7700" yWindow="4160" windowWidth="28040" windowHeight="17440" xr2:uid="{71D8D245-D65A-BA4B-8075-03DFE365F1EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{71D8D245-D65A-BA4B-8075-03DFE365F1EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="151">
   <si>
     <t>@elonmusk</t>
   </si>
@@ -68,14 +68,448 @@
   </si>
   <si>
     <t>Oprah Winfrey</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Twitter_id</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>Twitter_username</t>
+  </si>
+  <si>
+    <t>Business Man</t>
+  </si>
+  <si>
+    <t>Famous Artist</t>
+  </si>
+  <si>
+    <t>Athlete</t>
+  </si>
+  <si>
+    <t>Bill Gates</t>
+  </si>
+  <si>
+    <t>Jeff Bezos</t>
+  </si>
+  <si>
+    <t>Jack Ma</t>
+  </si>
+  <si>
+    <t>Tim Cook</t>
+  </si>
+  <si>
+    <t>Beyonce</t>
+  </si>
+  <si>
+    <t>Richard Branson</t>
+  </si>
+  <si>
+    <t>Larry Ellison</t>
+  </si>
+  <si>
+    <t>Warren Buffett</t>
+  </si>
+  <si>
+    <t>Martha Stewart</t>
+  </si>
+  <si>
+    <t>Steve Wozniak</t>
+  </si>
+  <si>
+    <t>Sundar Pichai</t>
+  </si>
+  <si>
+    <t>Mike Bloomberg</t>
+  </si>
+  <si>
+    <t>Ratan Tata</t>
+  </si>
+  <si>
+    <t>Steve Ballmer</t>
+  </si>
+  <si>
+    <t>Sherl Sandberg</t>
+  </si>
+  <si>
+    <t>@BillGates</t>
+  </si>
+  <si>
+    <t>@JeffBezos</t>
+  </si>
+  <si>
+    <t>@JackMa</t>
+  </si>
+  <si>
+    <t>@Beyonce</t>
+  </si>
+  <si>
+    <t>@WarrenBuffett</t>
+  </si>
+  <si>
+    <t>@MarthaStewart</t>
+  </si>
+  <si>
+    <t>@MikeBloomberg</t>
+  </si>
+  <si>
+    <t>@tim_cook</t>
+  </si>
+  <si>
+    <t>@richardbranson</t>
+  </si>
+  <si>
+    <t>@larryellison</t>
+  </si>
+  <si>
+    <t>@sundarpichai</t>
+  </si>
+  <si>
+    <t>@stevewoz</t>
+  </si>
+  <si>
+    <t>@RNTata2000</t>
+  </si>
+  <si>
+    <t>@Steven_Ballmer</t>
+  </si>
+  <si>
+    <t>@sherylsandberg</t>
+  </si>
+  <si>
+    <t>Susan Wojcicki</t>
+  </si>
+  <si>
+    <t>@SusanWojcicki</t>
+  </si>
+  <si>
+    <t>Indra Nooyi</t>
+  </si>
+  <si>
+    <t>@IndraNooyi</t>
+  </si>
+  <si>
+    <t>Vera Wang</t>
+  </si>
+  <si>
+    <t>@VeraWang</t>
+  </si>
+  <si>
+    <t>Carly Fiorina</t>
+  </si>
+  <si>
+    <t>@CarlyFiorina</t>
+  </si>
+  <si>
+    <t>Lady Gaga</t>
+  </si>
+  <si>
+    <t>Madona</t>
+  </si>
+  <si>
+    <t>Adele</t>
+  </si>
+  <si>
+    <t>Justin Bieber</t>
+  </si>
+  <si>
+    <t>Selena Gomez</t>
+  </si>
+  <si>
+    <t>Ed Sheeran</t>
+  </si>
+  <si>
+    <t>Justin Timberlake</t>
+  </si>
+  <si>
+    <t>Katy Perry</t>
+  </si>
+  <si>
+    <t>Rihanna</t>
+  </si>
+  <si>
+    <t>Billie Ellish</t>
+  </si>
+  <si>
+    <t>Bruno Mars</t>
+  </si>
+  <si>
+    <t>@ladygaga</t>
+  </si>
+  <si>
+    <t>@justinbieber</t>
+  </si>
+  <si>
+    <t>@selenagomez</t>
+  </si>
+  <si>
+    <t>@edsheeran</t>
+  </si>
+  <si>
+    <t>@katyperry</t>
+  </si>
+  <si>
+    <t>@rihanna</t>
+  </si>
+  <si>
+    <t>@Madonna</t>
+  </si>
+  <si>
+    <t>@Adele</t>
+  </si>
+  <si>
+    <t>@jtimberlake</t>
+  </si>
+  <si>
+    <t>@billieeilish</t>
+  </si>
+  <si>
+    <t>@BrunoMars</t>
+  </si>
+  <si>
+    <t>Alicia Keys</t>
+  </si>
+  <si>
+    <t>@aliciakeys</t>
+  </si>
+  <si>
+    <t>Pele</t>
+  </si>
+  <si>
+    <t>Paul Pogba</t>
+  </si>
+  <si>
+    <t>@paulpogba</t>
+  </si>
+  <si>
+    <t>@Pele</t>
+  </si>
+  <si>
+    <t>Ronaldo Nazário</t>
+  </si>
+  <si>
+    <t>@Ronaldo</t>
+  </si>
+  <si>
+    <t>Jadon Sancho</t>
+  </si>
+  <si>
+    <t>@Sanchooo10</t>
+  </si>
+  <si>
+    <t>David Villa</t>
+  </si>
+  <si>
+    <t>@Guaje7Villa</t>
+  </si>
+  <si>
+    <t>Joe Biden</t>
+  </si>
+  <si>
+    <t>@JoeBiden</t>
+  </si>
+  <si>
+    <t>President of Russia</t>
+  </si>
+  <si>
+    <t>@KremlinRussia_E</t>
+  </si>
+  <si>
+    <t>Kamala Harris</t>
+  </si>
+  <si>
+    <t>@KamalaHarris</t>
+  </si>
+  <si>
+    <t>Nancy Pelosi</t>
+  </si>
+  <si>
+    <t>@TeamPelosi</t>
+  </si>
+  <si>
+    <t>George W. Bush</t>
+  </si>
+  <si>
+    <t>@TheBushCenter</t>
+  </si>
+  <si>
+    <t>Kelly Clarkson</t>
+  </si>
+  <si>
+    <t>@kellyclarkson</t>
+  </si>
+  <si>
+    <t>Michael Dell</t>
+  </si>
+  <si>
+    <t>@MichaelDell</t>
+  </si>
+  <si>
+    <t>50393960</t>
+  </si>
+  <si>
+    <t>15506669</t>
+  </si>
+  <si>
+    <t>1239332857807384576</t>
+  </si>
+  <si>
+    <t>1636590253</t>
+  </si>
+  <si>
+    <t>31239408</t>
+  </si>
+  <si>
+    <t>8161232</t>
+  </si>
+  <si>
+    <t>15828408</t>
+  </si>
+  <si>
+    <t>595822244</t>
+  </si>
+  <si>
+    <t>2652536876</t>
+  </si>
+  <si>
+    <t>1364930179</t>
+  </si>
+  <si>
+    <t>21324258</t>
+  </si>
+  <si>
+    <t>40080940</t>
+  </si>
+  <si>
+    <t>65691824</t>
+  </si>
+  <si>
+    <t>22938914</t>
+  </si>
+  <si>
+    <t>14130366</t>
+  </si>
+  <si>
+    <t>16581604</t>
+  </si>
+  <si>
+    <t>277434037</t>
+  </si>
+  <si>
+    <t>3751591514</t>
+  </si>
+  <si>
+    <t>19506790</t>
+  </si>
+  <si>
+    <t>35094637</t>
+  </si>
+  <si>
+    <t>14230524</t>
+  </si>
+  <si>
+    <t>512700138</t>
+  </si>
+  <si>
+    <t>184910040</t>
+  </si>
+  <si>
+    <t>27260086</t>
+  </si>
+  <si>
+    <t>23375688</t>
+  </si>
+  <si>
+    <t>85452649</t>
+  </si>
+  <si>
+    <t>26565946</t>
+  </si>
+  <si>
+    <t>21447363</t>
+  </si>
+  <si>
+    <t>79293791</t>
+  </si>
+  <si>
+    <t>2150327072</t>
+  </si>
+  <si>
+    <t>100220864</t>
+  </si>
+  <si>
+    <t>2717886660</t>
+  </si>
+  <si>
+    <t>480782173</t>
+  </si>
+  <si>
+    <t>2339333214</t>
+  </si>
+  <si>
+    <t>2491702663</t>
+  </si>
+  <si>
+    <t>426738834</t>
+  </si>
+  <si>
+    <t>939091</t>
+  </si>
+  <si>
+    <t>205622130</t>
+  </si>
+  <si>
+    <t>30354991</t>
+  </si>
+  <si>
+    <t>2461810448</t>
+  </si>
+  <si>
+    <t>148376661</t>
+  </si>
+  <si>
+    <t>23690344</t>
+  </si>
+  <si>
+    <t>58560480</t>
+  </si>
+  <si>
+    <t>Kim Ki Nam</t>
+  </si>
+  <si>
+    <t>@Samsung</t>
+  </si>
+  <si>
+    <t>2381578122</t>
+  </si>
+  <si>
+    <t>Politician</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -103,9 +537,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,75 +856,723 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8282D41-6A2F-5345-ABCA-65AABDFF3AFE}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="17.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="17.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="1">
         <v>813286</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
         <v>17919972</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1">
         <v>155659213</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
         <v>19397785</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Fintech_Backend/Social_Network/data/influencer.xlsx
+++ b/Fintech_Backend/Social_Network/data/influencer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d58a44348ad9b894/_Spring2022/CS 4485.002 - Computer Science Project/Project/Social_Network/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d58a44348ad9b894/_Spring2022/CS 4485.002 - Computer Science Project/Project/repo/CS4485_T2_DataIngestion/Fintech_Backend/Social_Network/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DF96042-C6F4-D543-8831-AFEC7271C9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{27C69FD8-ABA2-4D55-923B-A54958E553B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A037F76-144A-43BB-AD48-50E4D9C17721}"/>
   <bookViews>
-    <workbookView xWindow="7700" yWindow="4160" windowWidth="28040" windowHeight="17440" xr2:uid="{71D8D245-D65A-BA4B-8075-03DFE365F1EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{71D8D245-D65A-BA4B-8075-03DFE365F1EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,47 +35,559 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="177">
+  <si>
+    <t>@barackobama</t>
+  </si>
+  <si>
+    <t>Barack Obama</t>
+  </si>
+  <si>
+    <t>@taylorswift13</t>
+  </si>
+  <si>
+    <t>Taylor Swift</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo</t>
+  </si>
+  <si>
+    <t>@critiano</t>
+  </si>
+  <si>
+    <t>@Oprah</t>
+  </si>
+  <si>
+    <t>Oprah Winfrey</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Twitter_id</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>Twitter_username</t>
+  </si>
+  <si>
+    <t>Business Man</t>
+  </si>
+  <si>
+    <t>Famous Artist</t>
+  </si>
+  <si>
+    <t>Athlete</t>
+  </si>
+  <si>
+    <t>Bill Gates</t>
+  </si>
+  <si>
+    <t>Jeff Bezos</t>
+  </si>
+  <si>
+    <t>Jack Ma</t>
+  </si>
+  <si>
+    <t>Tim Cook</t>
+  </si>
+  <si>
+    <t>Beyonce</t>
+  </si>
+  <si>
+    <t>Richard Branson</t>
+  </si>
+  <si>
+    <t>Larry Ellison</t>
+  </si>
+  <si>
+    <t>Warren Buffett</t>
+  </si>
+  <si>
+    <t>@BillGates</t>
+  </si>
+  <si>
+    <t>@JeffBezos</t>
+  </si>
+  <si>
+    <t>@JackMa</t>
+  </si>
+  <si>
+    <t>@Beyonce</t>
+  </si>
+  <si>
+    <t>@WarrenBuffett</t>
+  </si>
+  <si>
+    <t>@MikeBloomberg</t>
+  </si>
+  <si>
+    <t>@tim_cook</t>
+  </si>
+  <si>
+    <t>@richardbranson</t>
+  </si>
+  <si>
+    <t>@larryellison</t>
+  </si>
+  <si>
+    <t>Lady Gaga</t>
+  </si>
+  <si>
+    <t>Madona</t>
+  </si>
+  <si>
+    <t>Adele</t>
+  </si>
+  <si>
+    <t>Justin Bieber</t>
+  </si>
+  <si>
+    <t>Selena Gomez</t>
+  </si>
+  <si>
+    <t>Justin Timberlake</t>
+  </si>
+  <si>
+    <t>Katy Perry</t>
+  </si>
+  <si>
+    <t>Rihanna</t>
+  </si>
+  <si>
+    <t>Bruno Mars</t>
+  </si>
+  <si>
+    <t>@ladygaga</t>
+  </si>
+  <si>
+    <t>@justinbieber</t>
+  </si>
+  <si>
+    <t>@selenagomez</t>
+  </si>
+  <si>
+    <t>@katyperry</t>
+  </si>
+  <si>
+    <t>@rihanna</t>
+  </si>
+  <si>
+    <t>@Madonna</t>
+  </si>
+  <si>
+    <t>@Adele</t>
+  </si>
+  <si>
+    <t>@jtimberlake</t>
+  </si>
+  <si>
+    <t>@BrunoMars</t>
+  </si>
+  <si>
+    <t>Alicia Keys</t>
+  </si>
+  <si>
+    <t>@aliciakeys</t>
+  </si>
+  <si>
+    <t>Paul Pogba</t>
+  </si>
+  <si>
+    <t>@paulpogba</t>
+  </si>
+  <si>
+    <t>Ronaldo Nazário</t>
+  </si>
+  <si>
+    <t>@Ronaldo</t>
+  </si>
+  <si>
+    <t>Joe Biden</t>
+  </si>
+  <si>
+    <t>@JoeBiden</t>
+  </si>
+  <si>
+    <t>President of Russia</t>
+  </si>
+  <si>
+    <t>@KremlinRussia_E</t>
+  </si>
+  <si>
+    <t>Kamala Harris</t>
+  </si>
+  <si>
+    <t>@KamalaHarris</t>
+  </si>
+  <si>
+    <t>Nancy Pelosi</t>
+  </si>
+  <si>
+    <t>@TeamPelosi</t>
+  </si>
+  <si>
+    <t>George W. Bush</t>
+  </si>
+  <si>
+    <t>@TheBushCenter</t>
+  </si>
+  <si>
+    <t>Michael Dell</t>
+  </si>
+  <si>
+    <t>@MichaelDell</t>
+  </si>
+  <si>
+    <t>50393960</t>
+  </si>
+  <si>
+    <t>15506669</t>
+  </si>
+  <si>
+    <t>1239332857807384576</t>
+  </si>
+  <si>
+    <t>1636590253</t>
+  </si>
+  <si>
+    <t>31239408</t>
+  </si>
+  <si>
+    <t>8161232</t>
+  </si>
+  <si>
+    <t>595822244</t>
+  </si>
+  <si>
+    <t>1364930179</t>
+  </si>
+  <si>
+    <t>16581604</t>
+  </si>
+  <si>
+    <t>35094637</t>
+  </si>
+  <si>
+    <t>14230524</t>
+  </si>
+  <si>
+    <t>512700138</t>
+  </si>
+  <si>
+    <t>184910040</t>
+  </si>
+  <si>
+    <t>27260086</t>
+  </si>
+  <si>
+    <t>23375688</t>
+  </si>
+  <si>
+    <t>26565946</t>
+  </si>
+  <si>
+    <t>21447363</t>
+  </si>
+  <si>
+    <t>79293791</t>
+  </si>
+  <si>
+    <t>100220864</t>
+  </si>
+  <si>
+    <t>2717886660</t>
+  </si>
+  <si>
+    <t>2491702663</t>
+  </si>
+  <si>
+    <t>939091</t>
+  </si>
+  <si>
+    <t>205622130</t>
+  </si>
+  <si>
+    <t>30354991</t>
+  </si>
+  <si>
+    <t>2461810448</t>
+  </si>
+  <si>
+    <t>148376661</t>
+  </si>
+  <si>
+    <t>58560480</t>
+  </si>
+  <si>
+    <t>Kim Ki Nam</t>
+  </si>
+  <si>
+    <t>@Samsung</t>
+  </si>
+  <si>
+    <t>2381578122</t>
+  </si>
+  <si>
+    <t>Carl Icahn</t>
+  </si>
+  <si>
+    <t>@Carl_C_Icahn</t>
+  </si>
+  <si>
+    <t>1534167900</t>
+  </si>
+  <si>
+    <t>Mark Cuban</t>
+  </si>
+  <si>
+    <t>@mcuban</t>
+  </si>
+  <si>
+    <t>16228398</t>
+  </si>
+  <si>
+    <t>Michael Bloomberg</t>
+  </si>
+  <si>
+    <t>George Soros</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @georgesoros</t>
+  </si>
+  <si>
+    <t>23125257</t>
+  </si>
+  <si>
+    <t>Eric Lefkofsky</t>
+  </si>
+  <si>
+    <t>@lefkofsky</t>
+  </si>
+  <si>
+    <t>15716974</t>
+  </si>
+  <si>
+    <t>Paul Allen</t>
+  </si>
+  <si>
+    <t>@PaulGAllen</t>
+  </si>
+  <si>
+    <t>24167314</t>
+  </si>
+  <si>
+    <t>Jan Koum</t>
+  </si>
+  <si>
+    <t>36783881</t>
+  </si>
+  <si>
+    <t>@jankoum</t>
+  </si>
+  <si>
+    <t>Eric Schmidt</t>
+  </si>
+  <si>
+    <t>93957809</t>
+  </si>
+  <si>
+    <t>@ericschmidt</t>
+  </si>
+  <si>
+    <t>Pierre Omidyar</t>
+  </si>
+  <si>
+    <t>@pierre</t>
+  </si>
+  <si>
+    <t>749963</t>
+  </si>
+  <si>
+    <t>David Einhorn</t>
+  </si>
+  <si>
+    <t>@davidein</t>
+  </si>
+  <si>
+    <t>52849759</t>
+  </si>
+  <si>
+    <t>Mario Gabelli</t>
+  </si>
+  <si>
+    <t>@MarioGabelli</t>
+  </si>
+  <si>
+    <t>174385219</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>@KDTrey5</t>
+  </si>
+  <si>
+    <t>35936474</t>
+  </si>
+  <si>
+    <t>Sachin Tendulkar</t>
+  </si>
+  <si>
+    <t>@sachin_rt</t>
+  </si>
+  <si>
+    <t>135421739</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>@KingJames</t>
+  </si>
+  <si>
+    <t>23083404</t>
+  </si>
+  <si>
+    <t>Wayne Rooney</t>
+  </si>
+  <si>
+    <t>@WayneRooney</t>
+  </si>
+  <si>
+    <t>285332860</t>
+  </si>
+  <si>
+    <t>Gerard Pique</t>
+  </si>
+  <si>
+    <t>@3gerardpique</t>
+  </si>
+  <si>
+    <t>224223563</t>
+  </si>
+  <si>
+    <t>Novak Djokovic</t>
+  </si>
+  <si>
+    <t>@DjokerNole</t>
+  </si>
+  <si>
+    <t>59925559</t>
+  </si>
+  <si>
+    <t>Politician</t>
+  </si>
+  <si>
+    <t>Streamer</t>
+  </si>
+  <si>
+    <t>CNBC</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>@CNBC</t>
+  </si>
+  <si>
+    <t>Stocktwits</t>
+  </si>
+  <si>
+    <t>@Stocktwits</t>
+  </si>
+  <si>
+    <t>NYT Business</t>
+  </si>
+  <si>
+    <t>@nytimesbusiness</t>
+  </si>
+  <si>
+    <t>Nathan Michaud</t>
+  </si>
+  <si>
+    <t>@InvestorsLive</t>
+  </si>
+  <si>
+    <t>Quinten Francois</t>
+  </si>
+  <si>
+    <t>@QuintenFrancois</t>
+  </si>
+  <si>
+    <t>Stephen L. Miller</t>
+  </si>
+  <si>
+    <t>@redsteeze</t>
+  </si>
+  <si>
+    <t>Yahoo Finance</t>
+  </si>
+  <si>
+    <t>@YahooFinance</t>
+  </si>
+  <si>
+    <t>tastytrade</t>
+  </si>
+  <si>
+    <t>@tastytrade</t>
+  </si>
+  <si>
+    <t>20402945</t>
+  </si>
+  <si>
+    <t>14886375</t>
+  </si>
+  <si>
+    <t>1754641</t>
+  </si>
+  <si>
+    <t>15971805</t>
+  </si>
+  <si>
+    <t>899748062507278336</t>
+  </si>
+  <si>
+    <t>393469195</t>
+  </si>
+  <si>
+    <t>19546277</t>
+  </si>
+  <si>
+    <t>238174807</t>
+  </si>
+  <si>
+    <t>Elon Musk</t>
+  </si>
   <si>
     <t>@elonmusk</t>
   </si>
   <si>
-    <t>Elon Musk</t>
-  </si>
-  <si>
     <t>44196397</t>
-  </si>
-  <si>
-    <t>@barackobama</t>
-  </si>
-  <si>
-    <t>Barack Obama</t>
-  </si>
-  <si>
-    <t>@taylorswift13</t>
-  </si>
-  <si>
-    <t>Taylor Swift</t>
-  </si>
-  <si>
-    <t>Cristiano Ronaldo</t>
-  </si>
-  <si>
-    <t>@critiano</t>
-  </si>
-  <si>
-    <t>@Oprah</t>
-  </si>
-  <si>
-    <t>Oprah Winfrey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -103,9 +615,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,75 +937,835 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8282D41-6A2F-5345-ABCA-65AABDFF3AFE}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="17.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="17.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="1">
+        <v>813286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
+        <v>17919972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>813286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>155659213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>17919972</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>155659213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
         <v>19397785</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>